--- a/vertx-pin/zero-jet/src/main/resources/plugin/jet/oob/cab/epic.integration.xlsx
+++ b/vertx-pin/zero-jet/src/main/resources/plugin/jet/oob/cab/epic.integration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-jet/src/main/resources/plugin/jet/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBEF2C0-8B2E-0845-9E72-C7BB12D7F98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9634CABE-DA8E-DE42-8532-FBCB2E023839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="78400" yWindow="-12360" windowWidth="39580" windowHeight="26480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -553,7 +553,7 @@
     <t>perm.api.seek</t>
   </si>
   <si>
-    <t>JSON:plugin/ke/rule.form/x-api.json</t>
+    <t>JSON:plugin/ke/rule.form/i.api.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1138,7 +1138,7 @@
   <dimension ref="A2:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
